--- a/transformed_data/modified_sent_prior_18_avg.xlsx
+++ b/transformed_data/modified_sent_prior_18_avg.xlsx
@@ -501,12 +501,12 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Case_0 with NonVerbal</t>
+          <t>Case_0 with Openness</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Case_0 with Openness</t>
+          <t>Case_0 with Voiceless</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -585,10 +585,10 @@
         <v>17</v>
       </c>
       <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
         <v>16</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>12</v>
@@ -654,10 +654,10 @@
         <v>11</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P3" t="n">
         <v>12</v>
@@ -723,10 +723,10 @@
         <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P4" t="n">
         <v>16</v>
@@ -792,10 +792,10 @@
         <v>14</v>
       </c>
       <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
         <v>17</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>7</v>
@@ -861,10 +861,10 @@
         <v>11</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P6" t="n">
         <v>17</v>
@@ -930,10 +930,10 @@
         <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P7" t="n">
         <v>12</v>
@@ -999,10 +999,10 @@
         <v>15</v>
       </c>
       <c r="N8" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" t="n">
         <v>18</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6</v>
       </c>
       <c r="P8" t="n">
         <v>10</v>
@@ -1068,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
         <v>8</v>
@@ -1137,10 +1137,10 @@
         <v>8</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>18</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vietnamese</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1206,10 +1206,10 @@
         <v>16</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P11" t="n">
         <v>6</v>
@@ -1275,10 +1275,10 @@
         <v>8</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
         <v>18</v>
@@ -1344,10 +1344,10 @@
         <v>17</v>
       </c>
       <c r="N13" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" t="n">
         <v>16</v>
-      </c>
-      <c r="O13" t="n">
-        <v>5</v>
       </c>
       <c r="P13" t="n">
         <v>15</v>
@@ -1413,10 +1413,10 @@
         <v>16</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P14" t="n">
         <v>9</v>
@@ -1482,10 +1482,10 @@
         <v>16</v>
       </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O15" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>9</v>
@@ -1551,10 +1551,10 @@
         <v>18</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P16" t="n">
         <v>14</v>
@@ -1620,10 +1620,10 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P17" t="n">
         <v>15</v>
@@ -1689,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
         <v>12</v>
@@ -1758,10 +1758,10 @@
         <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P19" t="n">
         <v>18</v>
